--- a/exposan/bwaise/results/sysB.xlsx
+++ b/exposan/bwaise/results/sysB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
   <si>
     <t>Unit operation</t>
   </si>
@@ -39,6 +39,9 @@
     <t>B7</t>
   </si>
   <si>
+    <t>B4</t>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>Liquid treatment bed</t>
   </si>
   <si>
+    <t>Lumped WWTP cost</t>
+  </si>
+  <si>
     <t>Pit latrine</t>
   </si>
   <si>
@@ -114,135 +120,135 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>B_CH4</t>
+  </si>
+  <si>
+    <t>mixed_waste</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>B_sol_K</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>B5_N2O</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>B7_CH4</t>
+  </si>
+  <si>
+    <t>B_liq_P</t>
+  </si>
+  <si>
+    <t>ABR_treated</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>transported</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>B_N2O</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>B2_N2O</t>
+  </si>
+  <si>
+    <t>B_biogas</t>
+  </si>
+  <si>
+    <t>B8_CH4</t>
+  </si>
+  <si>
+    <t>B7_N2O</t>
+  </si>
+  <si>
+    <t>B_sol_P</t>
+  </si>
+  <si>
+    <t>ws4</t>
+  </si>
+  <si>
+    <t>biogas</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>B_liq_N</t>
+  </si>
+  <si>
+    <t>B2_CH4</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
     <t>B_sol_non_fertilizers</t>
   </si>
   <si>
-    <t>B5_N2O</t>
-  </si>
-  <si>
-    <t>B_N2O</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>B_biogas</t>
+    <t>B8_N2O</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>B_liq_K</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>B5_CH4</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>liquid_bed_treated</t>
+  </si>
+  <si>
+    <t>B_sol_N</t>
   </si>
   <si>
     <t>B_liq_non_fertilizers</t>
   </si>
   <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>B_liq_N</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>ws4</t>
-  </si>
-  <si>
-    <t>B8_CH4</t>
-  </si>
-  <si>
-    <t>mixed_waste</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>B_sol_N</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>ABR_treated</t>
-  </si>
-  <si>
-    <t>B8_N2O</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>liquid_bed_treated</t>
-  </si>
-  <si>
-    <t>B_liq_P</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>biogas</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>transported</t>
-  </si>
-  <si>
-    <t>B2_CH4</t>
-  </si>
-  <si>
-    <t>B7_CH4</t>
-  </si>
-  <si>
-    <t>B_sol_P</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>B5_CH4</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>B_CH4</t>
-  </si>
-  <si>
-    <t>B2_N2O</t>
-  </si>
-  <si>
-    <t>B7_N2O</t>
-  </si>
-  <si>
-    <t>B_liq_K</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>B_sol_K</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -315,19 +321,31 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>B11</t>
   </si>
   <si>
-    <t>gas</t>
+    <t>B14</t>
   </si>
   <si>
     <t>B15</t>
@@ -339,21 +357,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>Unit Operation</t>
   </si>
   <si>
@@ -438,6 +441,12 @@
     <t>Purchase cost</t>
   </si>
   <si>
+    <t>Lumped WWTP</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>Number of users per toilet</t>
   </si>
   <si>
@@ -474,9 +483,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Single toilet</t>
-  </si>
-  <si>
     <t>Total toilets</t>
   </si>
   <si>
@@ -486,9 +492,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Number of covered bed</t>
   </si>
   <si>
@@ -517,6 +520,9 @@
   </si>
   <si>
     <t>Total column length</t>
+  </si>
+  <si>
+    <t>Total fee</t>
   </si>
   <si>
     <t>Parallel trucks</t>
@@ -933,7 +939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -975,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -992,16 +998,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1.403574</v>
+        <v>0.33714</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00116518</v>
       </c>
       <c r="E4">
-        <v>1.403574</v>
+        <v>0.33714</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1009,16 +1015,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.403125</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.403125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1026,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1035,6 +1041,23 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -1053,55 +1076,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1109,10 +1132,10 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>1.403574</v>
+        <v>1.740265</v>
       </c>
       <c r="C2">
-        <v>1.403574</v>
+        <v>1.740265</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1148,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.403574</v>
+        <v>-1.740265</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-1.403574</v>
+        <v>-1.740265</v>
       </c>
       <c r="R2">
-        <v>-1.403574</v>
+        <v>-1.740265</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1174,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2005707246</v>
+        <v>0.2486838685</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1189,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K3">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1201,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.3050211587261959</v>
+        <v>-0.3532730040597549</v>
       </c>
       <c r="O3">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-0.09947660392971042</v>
+        <v>-0.09960870053309993</v>
       </c>
       <c r="R3">
-        <v>-1.50305060392971</v>
+        <v>-1.8398737005331</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1230,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3437352726</v>
+        <v>0.4261908985</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1245,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K4">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1257,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.448185706726196</v>
+        <v>-0.5307800340597549</v>
       </c>
       <c r="O4">
-        <v>-0.104450434126196</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-0.09473962279020041</v>
+        <v>-0.09486542907914278</v>
       </c>
       <c r="R4">
-        <v>-1.597790226719911</v>
+        <v>-1.934739129612243</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1286,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2454850926</v>
+        <v>0.3043723485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1301,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K5">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1313,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.3499355267261959</v>
+        <v>-0.408961484059755</v>
       </c>
       <c r="O5">
-        <v>-0.1044504341261959</v>
+        <v>-0.104589135559755</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09022821218114323</v>
+        <v>-0.09034802769442174</v>
       </c>
       <c r="R5">
-        <v>-1.688018438901054</v>
+        <v>-2.025087157306665</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1342,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1753063926</v>
+        <v>0.2173590985</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1357,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K6">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1369,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.279756826726196</v>
+        <v>-0.3219482340597549</v>
       </c>
       <c r="O6">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-0.08593163064870782</v>
+        <v>-0.08604574066135401</v>
       </c>
       <c r="R6">
-        <v>-1.773950069549762</v>
+        <v>-2.111132897968019</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1398,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1253391582</v>
+        <v>0.1554056645</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1413,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K7">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1425,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-0.2297895923261959</v>
+        <v>-0.2599948000597549</v>
       </c>
       <c r="O7">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.0818396482368646</v>
+        <v>-0.08194832443938475</v>
       </c>
       <c r="R7">
-        <v>-1.855789717786626</v>
+        <v>-2.193081222407403</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1454,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1251988008</v>
+        <v>0.155231638</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1469,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K8">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1481,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.2296492349261959</v>
+        <v>-0.259820773559755</v>
       </c>
       <c r="O8">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07794252213034722</v>
+        <v>-0.07804602327560453</v>
       </c>
       <c r="R8">
-        <v>-1.933732239916974</v>
+        <v>-2.271127245683008</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1510,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1253391582</v>
+        <v>0.1554056645</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1525,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K9">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1537,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.2297895923261959</v>
+        <v>-0.2599948000597549</v>
       </c>
       <c r="O9">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07423097345747355</v>
+        <v>-0.07432954597676621</v>
       </c>
       <c r="R9">
-        <v>-2.007963213374447</v>
+        <v>-2.345456791659774</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1566,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0625994004</v>
+        <v>0.077615819</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1581,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K10">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1593,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.167049834526196</v>
+        <v>-0.1822049545597549</v>
       </c>
       <c r="O10">
-        <v>-0.104450434126196</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07069616519759386</v>
+        <v>-0.07079004378739638</v>
       </c>
       <c r="R10">
-        <v>-2.078659378572041</v>
+        <v>-2.416246835447171</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1637,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K11">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1649,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="O11">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P11">
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.06732968114056558</v>
+        <v>-0.06741908932132989</v>
       </c>
       <c r="R11">
-        <v>-2.145989059712607</v>
+        <v>-2.483665924768501</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1693,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2823846570364095</v>
+        <v>0.2825233584699686</v>
       </c>
       <c r="K12">
-        <v>0.1779342229102135</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1705,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="O12">
-        <v>-0.1044504341261959</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P12">
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06412350584815768</v>
+        <v>-0.06420865649650466</v>
       </c>
       <c r="R12">
-        <v>-2.210112565560765</v>
+        <v>-2.547874581265005</v>
       </c>
     </row>
   </sheetData>
@@ -1735,540 +1758,540 @@
   <sheetData>
     <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
       </c>
       <c r="X3" t="s">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z3" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AO3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR3" t="s">
         <v>110</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AA4" t="s">
         <v>108</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>6</v>
       </c>
       <c r="AB4" t="s">
         <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" t="s">
         <v>107</v>
       </c>
-      <c r="AE4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>6</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AQ4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AR4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AB5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AJ5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AP5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AR5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>298.15</v>
@@ -2402,243 +2425,243 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>14.59450718711785</v>
+        <v>0.4166666669999999</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3364864700325733</v>
       </c>
       <c r="D7">
+        <v>4.629346641245625</v>
+      </c>
+      <c r="E7">
+        <v>1541.09589041096</v>
+      </c>
+      <c r="F7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.4716271560000001</v>
+      </c>
+      <c r="H7">
+        <v>180.838070960369</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3.945642161716947</v>
+      </c>
+      <c r="K7">
+        <v>0.002705621826473629</v>
+      </c>
+      <c r="L7">
+        <v>1.3506914877225</v>
+      </c>
+      <c r="M7">
+        <v>1413.600841687333</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.000281583</v>
+      </c>
+      <c r="P7">
+        <v>1510.273972602741</v>
+      </c>
+      <c r="Q7">
+        <v>1215.696723851107</v>
+      </c>
+      <c r="R7">
         <v>0.001118203799433003</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>30.82191780821917</v>
-      </c>
-      <c r="G7">
-        <v>180.838070960369</v>
-      </c>
-      <c r="H7">
-        <v>8.768093692704323</v>
-      </c>
-      <c r="I7">
-        <v>1205.701559516292</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1215.696723851107</v>
-      </c>
-      <c r="L7">
-        <v>5.17902863338111</v>
-      </c>
-      <c r="M7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="N7">
+      <c r="S7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="T7">
+        <v>5053.066089749999</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>8.768093692704328</v>
+      </c>
+      <c r="W7">
+        <v>0.02500566459526617</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0.3338634048749999</v>
+      </c>
+      <c r="Z7">
         <v>1510.273972602741</v>
       </c>
-      <c r="O7">
-        <v>0.02502584333541957</v>
-      </c>
-      <c r="P7">
-        <v>1541.09589041096</v>
-      </c>
-      <c r="Q7">
+      <c r="AA7">
+        <v>9.742326325227031</v>
+      </c>
+      <c r="AB7">
+        <v>4.822451530987381</v>
+      </c>
+      <c r="AC7">
         <v>197.9041178362266</v>
       </c>
-      <c r="R7">
-        <v>0.1999222053610009</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="U7">
-        <v>1413.600841687333</v>
-      </c>
-      <c r="V7">
-        <v>0.001118203799433003</v>
-      </c>
-      <c r="W7">
-        <v>5053.06608975</v>
-      </c>
-      <c r="X7">
-        <v>1215.660914670549</v>
-      </c>
-      <c r="Y7">
-        <v>1.3506914877225</v>
-      </c>
-      <c r="Z7">
-        <v>4.822451530987378</v>
-      </c>
-      <c r="AA7">
-        <v>0.000281583</v>
-      </c>
-      <c r="AB7">
-        <v>9.742326325227026</v>
-      </c>
-      <c r="AC7">
-        <v>1215.324428200516</v>
-      </c>
       <c r="AD7">
-        <v>1510.273972602741</v>
+        <v>5.179028633381112</v>
       </c>
       <c r="AE7">
         <v>4.601635354823885</v>
       </c>
       <c r="AF7">
-        <v>0.002707805173354167</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.333863404875</v>
+        <v>30.82191780821917</v>
       </c>
       <c r="AH7">
-        <v>0.9742326325227026</v>
+        <v>14.59450718711785</v>
       </c>
       <c r="AI7">
-        <v>0.416666667</v>
+        <v>0.001118203799433003</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.3364864700325735</v>
+        <v>1215.324428200516</v>
       </c>
       <c r="AL7">
-        <v>4.629369003332658</v>
+        <v>3.09314856312</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>15.59991995335385</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>3.09314856312</v>
+        <v>0.9742326325227032</v>
       </c>
       <c r="AP7">
-        <v>3.945642161716945</v>
+        <v>1215.660914670549</v>
       </c>
       <c r="AQ7">
-        <v>0.4716271560000001</v>
+        <v>0.1999222053610009</v>
       </c>
       <c r="AR7">
-        <v>15.59991995335385</v>
+        <v>1205.701559516292</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>37.38714975844132</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1665958663793535</v>
       </c>
       <c r="F9">
+        <v>0.3659002285714285</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.177989000512772</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="Q9">
+        <v>0.2069639540846185</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.03670593194421815</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>46.15250229522244</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>0.1665958663793544</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.2069639540846184</v>
-      </c>
-      <c r="L9">
-        <v>46.15250229522243</v>
-      </c>
-      <c r="M9">
-        <v>0.3659002285714285</v>
-      </c>
-      <c r="N9">
-        <v>0.1665958663793534</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.1665958663793534</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="U9">
-        <v>0.1779890005127719</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.03670593194421815</v>
-      </c>
-      <c r="X9">
-        <v>0.2069700505293682</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0.1966759865454689</v>
-      </c>
-      <c r="AD9">
-        <v>0.1665958663793534</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
@@ -2649,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>37.38714975844129</v>
+        <v>0.196675986545469</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2664,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.2069700505293683</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2675,22 +2698,22 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>16.91414901266592</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2110829066666665</v>
       </c>
       <c r="F10">
-        <v>0.2110829066666675</v>
+        <v>0.06457062857142859</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2705,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2340790339899743</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>53.84749770477757</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.06457062857142859</v>
+        <v>0.2255184141086641</v>
       </c>
       <c r="N10">
-        <v>0.2110829066666665</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2723,108 +2746,108 @@
         <v>0.2110829066666665</v>
       </c>
       <c r="Q10">
+        <v>0.2340790339899743</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.26297856</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.2110829066666665</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>0.1729317491234726</v>
       </c>
-      <c r="R10">
+      <c r="AD10">
+        <v>53.84749770477755</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.2110829066666675</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0.2294677256359359</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>1.281559174398323</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0.2340859291515212</v>
+      </c>
+      <c r="AQ10">
         <v>100</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0.26297856</v>
-      </c>
-      <c r="U10">
-        <v>0.2255184141086641</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0.2340859291515212</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0.2294677256359359</v>
-      </c>
-      <c r="AD10">
-        <v>0.2110829066666665</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>16.91414901266591</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
       <c r="AR10">
-        <v>1.281559174398323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8.192047781247043</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1133648633333332</v>
       </c>
       <c r="F11">
-        <v>0.1133648633333336</v>
+        <v>0.04455919285714285</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2839,16 +2862,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1133717474995683</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>0.04455919285714286</v>
+        <v>0.1211176432914642</v>
       </c>
       <c r="N11">
-        <v>0.1133648633333332</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2857,34 +2880,34 @@
         <v>0.1133648633333332</v>
       </c>
       <c r="Q11">
-        <v>0.1686995745845395</v>
+        <v>0.1133717474995682</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.15953652</v>
       </c>
       <c r="T11">
-        <v>0.15953652</v>
+        <v>0.007589476234595889</v>
       </c>
       <c r="U11">
-        <v>0.1211176432914643</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.00758947623459589</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.113375087040494</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>100</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.1133648633333332</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2893,37 +2916,37 @@
         <v>0</v>
       </c>
       <c r="AC11">
+        <v>0.1686995745845394</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.1133648633333336</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>0.1111383476198546</v>
       </c>
-      <c r="AD11">
-        <v>0.1133648633333332</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>100</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>8.192047781247103</v>
-      </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.140161012834057</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2932,36 +2955,36 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.113375087040494</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>2.140161012834058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>18.76018399012874</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2402147733333332</v>
       </c>
       <c r="F12">
-        <v>0.2402147733333344</v>
+        <v>0.1188905142857143</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2973,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2596267623393355</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.1188905142857143</v>
+        <v>0.2566425466802628</v>
       </c>
       <c r="N12">
-        <v>0.2402147733333332</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2991,108 +3014,108 @@
         <v>0.2402147733333332</v>
       </c>
       <c r="Q12">
+        <v>0.2596267623393355</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.23392512</v>
+      </c>
+      <c r="T12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>0.2383109362031011</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0.23392512</v>
-      </c>
-      <c r="U12">
-        <v>0.2566425466802628</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="X12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.2402147733333344</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0.2545121690427885</v>
+      </c>
+      <c r="AL12">
+        <v>100</v>
+      </c>
+      <c r="AM12">
+        <v>3.02326651297082</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <v>0.2596344100489049</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0.2545121690427885</v>
-      </c>
-      <c r="AD12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>18.76018399012872</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>100</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
       <c r="AQ12">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>3.02326651297082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>1.762649445450732</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.93180742117781</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06083333333333329</v>
       </c>
       <c r="F13">
-        <v>0.0608333333333335</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3101,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05376703670019928</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.05441324197242944</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.01428571428571429</v>
+        <v>0.06499359457817963</v>
       </c>
       <c r="N13">
-        <v>0.06083333333333329</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3125,108 +3148,108 @@
         <v>0.06083333333333329</v>
       </c>
       <c r="Q13">
+        <v>0.05441324197242944</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.06083333333333329</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>0.1299871891563593</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0.1</v>
-      </c>
-      <c r="U13">
-        <v>0.06499359457817963</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0.0608333333333335</v>
+      </c>
+      <c r="AH13">
+        <v>1.762649445450732</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0.05334131240658664</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>1.649046923120227</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
         <v>0.05441484479899318</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.05334131240658664</v>
-      </c>
-      <c r="AD13">
-        <v>0.06083333333333329</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>3.931807421177808</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>1.649046923120227</v>
+        <v>0.05376703670019928</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>13.41851863552652</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>14.81466203633917</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.2947037037037034</v>
       </c>
       <c r="F14">
-        <v>0.2947037037037037</v>
+        <v>0.02</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3235,22 +3258,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2025888839617385</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2050237216047588</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.02</v>
+        <v>0.3148578581787368</v>
       </c>
       <c r="N14">
-        <v>0.2947037037037034</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3259,96 +3282,96 @@
         <v>0.2947037037037034</v>
       </c>
       <c r="Q14">
+        <v>0.2050237216047588</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.2947037037037034</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>0.9895532685617443</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="U14">
-        <v>0.3148578581787368</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.2947037037037037</v>
+      </c>
+      <c r="AH14">
+        <v>13.41851863552652</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0.2009847968702499</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>12.55369689410255</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>0.2050297608969471</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.2009847968702499</v>
-      </c>
-      <c r="AD14">
-        <v>0.2947037037037034</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>14.81466203633916</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
       <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>12.55369689410255</v>
+        <v>0.2025888839617385</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15">
-        <v>68.96063263388818</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3357,34 +3380,34 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>91.11679328808577</v>
       </c>
       <c r="F15">
-        <v>91.11679328808576</v>
+        <v>94.99999999999999</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
-        <v>98.30050138852638</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>97.49229844917777</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>94.99999999999999</v>
+        <v>97.34807543391207</v>
       </c>
       <c r="N15">
-        <v>91.11679328808577</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3393,96 +3416,96 @@
         <v>91.11679328808577</v>
       </c>
       <c r="Q15">
+        <v>97.49229844917777</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>85</v>
+      </c>
+      <c r="T15">
+        <v>99.93623007906949</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>91.11679328808577</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>96.46213405442278</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>85</v>
-      </c>
-      <c r="U15">
-        <v>97.34807543391207</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>99.9362300790695</v>
-      </c>
-      <c r="X15">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>91.11679328808576</v>
+      </c>
+      <c r="AH15">
+        <v>68.96063263388818</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>97.52216369160726</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>64.51612903225809</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
         <v>97.49517023626578</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>97.52216369160726</v>
-      </c>
-      <c r="AD15">
-        <v>91.11679328808577</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>100</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>64.51612903225809</v>
+        <v>98.30050138852638</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>15.85819928513457</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3491,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6.882830865164498</v>
       </c>
       <c r="F16">
-        <v>6.882830865164513</v>
+        <v>4.371793721428576</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3503,22 +3526,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2987826382680486</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2992716882706065</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.371793721428576</v>
+        <v>0.5147473038254432</v>
       </c>
       <c r="N16">
-        <v>6.882830865164498</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3527,93 +3550,93 @@
         <v>6.882830865164498</v>
       </c>
       <c r="Q16">
+        <v>0.2992716882706065</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>6.882830865164498</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>1.838383227948011</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="U16">
-        <v>0.5147473038254432</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>6.882830865164513</v>
+      </c>
+      <c r="AH16">
+        <v>15.85819928513457</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0.2964168945814542</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>14.83614045031593</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>0.2963348484505701</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0.2964168945814542</v>
-      </c>
-      <c r="AD16">
-        <v>6.882830865164498</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
       <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>14.83614045031593</v>
+        <v>0.2987826382680486</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3622,50 +3645,50 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>100</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -3676,46 +3699,46 @@
         <v>0</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>100</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3747,7 +3770,7 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3756,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3768,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>100</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3789,31 +3812,31 @@
         <v>0</v>
       </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>100</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3822,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>100</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
       </c>
       <c r="AB18">
         <v>100</v>
@@ -3840,37 +3863,37 @@
         <v>100</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>100</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>100</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>100</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
       <c r="AP18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -3881,7 +3904,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4015,7 +4038,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4149,7 +4172,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4283,7 +4306,7 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4417,7 +4440,7 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4429,129 +4452,129 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.9135803999999992</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.9760582049124029</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>0.9135803999999993</v>
+      </c>
+      <c r="Q23">
+        <v>1.134951401060933</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0.9135803999999993</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>0.9135803999999986</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1.135299075690392</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.1349848328174</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>1.144360052543629</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1.134951401060933</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0.9135803999999993</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0.9135803999999992</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0.9760582049124029</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1.1349848328174</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>100</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>1.135299075690392</v>
-      </c>
-      <c r="AD23">
-        <v>0.9135803999999993</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4685,7 +4708,7 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4819,7 +4842,7 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4958,7 +4981,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4966,16 +4989,30 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>113</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.7824200913242009</v>
+      </c>
+      <c r="D3">
+        <v>0.1330114155251142</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5022,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D63"/>
+  <dimension ref="A2:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4993,11 +5030,11 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -5005,13 +5042,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -5020,7 +5057,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5029,7 +5066,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5038,10 +5075,10 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -5050,10 +5087,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5062,10 +5099,10 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -5074,10 +5111,10 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>212.5</v>
@@ -5086,10 +5123,10 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>22.875</v>
@@ -5098,10 +5135,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>113333.3333333333</v>
@@ -5110,10 +5147,10 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>212.5</v>
@@ -5121,11 +5158,11 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5133,11 +5170,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -5145,13 +5182,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -5160,7 +5197,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5169,10 +5206,10 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>17.49</v>
@@ -5181,10 +5218,10 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20">
         <v>12.415</v>
@@ -5193,10 +5230,10 @@
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21">
         <v>1.5</v>
@@ -5205,10 +5242,10 @@
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22">
         <v>325.707525</v>
@@ -5217,10 +5254,10 @@
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23">
         <v>92.05600499999998</v>
@@ -5228,11 +5265,11 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5240,11 +5277,11 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -5252,151 +5289,129 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28">
+        <v>337140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28">
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31">
-        <v>3.656000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33">
-        <v>4.57</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>2187500</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>9913750</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
       </c>
       <c r="D36">
-        <v>4000000</v>
+        <v>3.656000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D37">
-        <v>708750</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D38">
-        <v>31500</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39">
-        <v>104921.875</v>
+        <v>2187500</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>593.75</v>
+        <v>9913750</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5405,110 +5420,116 @@
         <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41">
-        <v>11425</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D42">
-        <v>449</v>
+        <v>708750</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43">
-        <v>1403125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>132</v>
       </c>
       <c r="D44">
-        <v>8.008704337899543</v>
+        <v>104921.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45">
+        <v>593.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46">
+        <v>11425</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47">
+        <v>1403125</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48">
+        <v>8.008704337899543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49">
-        <v>142.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51">
-        <v>130.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5517,43 +5538,40 @@
     <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53">
-        <v>357</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55">
-        <v>259.1573099999999</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5562,69 +5580,113 @@
     <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59">
+        <v>259.1573099999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58">
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62">
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66">
         <v>3125</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63">
-        <v>13.58278125492766</v>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67">
+        <v>13.46560333638416</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="A52:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysB.xlsx
+++ b/exposan/bwaise/results/sysB.xlsx
@@ -120,135 +120,135 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>ABR_treated</t>
+  </si>
+  <si>
+    <t>B2_CH4</t>
+  </si>
+  <si>
+    <t>B2_N2O</t>
+  </si>
+  <si>
+    <t>B5_CH4</t>
+  </si>
+  <si>
+    <t>B5_N2O</t>
+  </si>
+  <si>
+    <t>B7_CH4</t>
+  </si>
+  <si>
+    <t>B7_N2O</t>
+  </si>
+  <si>
+    <t>B8_CH4</t>
+  </si>
+  <si>
+    <t>B8_N2O</t>
+  </si>
+  <si>
+    <t>B_CH4</t>
+  </si>
+  <si>
+    <t>B_N2O</t>
+  </si>
+  <si>
+    <t>B_biogas</t>
+  </si>
+  <si>
+    <t>B_liq_K</t>
+  </si>
+  <si>
+    <t>B_liq_N</t>
+  </si>
+  <si>
+    <t>B_liq_P</t>
+  </si>
+  <si>
+    <t>B_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>B_sol_K</t>
+  </si>
+  <si>
+    <t>B_sol_N</t>
+  </si>
+  <si>
+    <t>B_sol_P</t>
+  </si>
+  <si>
+    <t>B_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>biogas</t>
+  </si>
+  <si>
+    <t>cleansing_water</t>
+  </si>
+  <si>
+    <t>conveyance_loss</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
     <t>flushing_water</t>
   </si>
   <si>
+    <t>leachate</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>liquid_bed_treated</t>
+  </si>
+  <si>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>mixed_waste</t>
+  </si>
+  <si>
     <t>reuse_loss</t>
   </si>
   <si>
-    <t>B_CH4</t>
-  </si>
-  <si>
-    <t>mixed_waste</t>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>transported</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>B_sol_K</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>B5_N2O</t>
+    <t>used</t>
   </si>
   <si>
     <t>wasted</t>
   </si>
   <si>
-    <t>B7_CH4</t>
-  </si>
-  <si>
-    <t>B_liq_P</t>
-  </si>
-  <si>
-    <t>ABR_treated</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>transported</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>B_N2O</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>leachate</t>
-  </si>
-  <si>
-    <t>B2_N2O</t>
-  </si>
-  <si>
-    <t>B_biogas</t>
-  </si>
-  <si>
-    <t>B8_CH4</t>
-  </si>
-  <si>
-    <t>B7_N2O</t>
-  </si>
-  <si>
-    <t>B_sol_P</t>
-  </si>
-  <si>
     <t>ws4</t>
   </si>
   <si>
-    <t>biogas</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>sol</t>
-  </si>
-  <si>
-    <t>B_liq_N</t>
-  </si>
-  <si>
-    <t>B2_CH4</t>
-  </si>
-  <si>
-    <t>cleansing_water</t>
-  </si>
-  <si>
-    <t>conveyance_loss</t>
-  </si>
-  <si>
-    <t>B_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>B8_N2O</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>B_liq_K</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>B5_CH4</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>liquid_bed_treated</t>
-  </si>
-  <si>
-    <t>B_sol_N</t>
-  </si>
-  <si>
-    <t>B_liq_non_fertilizers</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -321,40 +321,40 @@
     <t>HAP</t>
   </si>
   <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>liquid</t>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
   <si>
     <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B6</t>
   </si>
   <si>
     <t>Unit Operation</t>
@@ -1233,7 +1233,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-0.09960870053309993</v>
+        <v>-0.09960870053309988</v>
       </c>
       <c r="R3">
         <v>-1.8398737005331</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.408961484059755</v>
+        <v>-0.4089614840597549</v>
       </c>
       <c r="O5">
-        <v>-0.104589135559755</v>
+        <v>-0.1045891355597549</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09034802769442174</v>
+        <v>-0.09034802769442168</v>
       </c>
       <c r="R5">
-        <v>-2.025087157306665</v>
+        <v>-2.025087157306664</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1401,7 +1401,7 @@
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-0.08604574066135401</v>
+        <v>-0.08604574066135395</v>
       </c>
       <c r="R6">
         <v>-2.111132897968019</v>
@@ -1457,7 +1457,7 @@
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08194832443938475</v>
+        <v>-0.08194832443938474</v>
       </c>
       <c r="R7">
         <v>-2.193081222407403</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.259820773559755</v>
+        <v>-0.2598207735597549</v>
       </c>
       <c r="O8">
         <v>-0.1045891355597549</v>
@@ -1513,7 +1513,7 @@
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07804602327560453</v>
+        <v>-0.0780460232756045</v>
       </c>
       <c r="R8">
         <v>-2.271127245683008</v>
@@ -1569,7 +1569,7 @@
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07432954597676621</v>
+        <v>-0.07432954597676619</v>
       </c>
       <c r="R9">
         <v>-2.345456791659774</v>
@@ -1681,7 +1681,7 @@
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.06741908932132989</v>
+        <v>-0.06741908932132988</v>
       </c>
       <c r="R11">
         <v>-2.483665924768501</v>
@@ -1737,7 +1737,7 @@
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06420865649650466</v>
+        <v>-0.06420865649650465</v>
       </c>
       <c r="R12">
         <v>-2.547874581265005</v>
@@ -1892,91 +1892,91 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
         <v>110</v>
       </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="AD3" t="s">
         <v>105</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>110</v>
       </c>
       <c r="AE3" t="s">
         <v>7</v>
@@ -1985,40 +1985,40 @@
         <v>100</v>
       </c>
       <c r="AG3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN3" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AO3" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>108</v>
-      </c>
       <c r="AP3" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="AQ3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AR3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2026,133 +2026,133 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="Y4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z4" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W4" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>4</v>
       </c>
       <c r="AA4" t="s">
         <v>108</v>
       </c>
       <c r="AB4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AC4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL4" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AM4" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AN4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>106</v>
       </c>
-      <c r="AN4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AR4" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -2163,40 +2163,40 @@
         <v>101</v>
       </c>
       <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s">
-        <v>104</v>
       </c>
       <c r="O5" t="s">
         <v>101</v>
@@ -2208,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
         <v>101</v>
@@ -2217,16 +2217,16 @@
         <v>101</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y5" t="s">
         <v>101</v>
@@ -2235,10 +2235,10 @@
         <v>101</v>
       </c>
       <c r="AA5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC5" t="s">
         <v>101</v>
@@ -2247,7 +2247,7 @@
         <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s">
         <v>101</v>
@@ -2259,7 +2259,7 @@
         <v>101</v>
       </c>
       <c r="AI5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s">
         <v>101</v>
@@ -2274,16 +2274,16 @@
         <v>101</v>
       </c>
       <c r="AN5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AO5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AP5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AR5" t="s">
         <v>101</v>
@@ -2428,133 +2428,133 @@
         <v>80</v>
       </c>
       <c r="B7">
+        <v>1413.600841687333</v>
+      </c>
+      <c r="C7">
+        <v>4.601635354823885</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.002705621826473629</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.02500566459526617</v>
+      </c>
+      <c r="J7">
+        <v>0.001118203799433003</v>
+      </c>
+      <c r="K7">
+        <v>4.629346641245625</v>
+      </c>
+      <c r="L7">
+        <v>0.001118203799433003</v>
+      </c>
+      <c r="M7">
+        <v>8.768093692704328</v>
+      </c>
+      <c r="N7">
+        <v>3.09314856312</v>
+      </c>
+      <c r="O7">
+        <v>5.179028633381112</v>
+      </c>
+      <c r="P7">
+        <v>1.3506914877225</v>
+      </c>
+      <c r="Q7">
+        <v>1205.701559516292</v>
+      </c>
+      <c r="R7">
+        <v>0.4716271560000001</v>
+      </c>
+      <c r="S7">
+        <v>0.1999222053610009</v>
+      </c>
+      <c r="T7">
+        <v>0.3338634048749999</v>
+      </c>
+      <c r="U7">
+        <v>14.59450718711785</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>9.742326325227031</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>30.82191780821917</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>15.59991995335385</v>
+      </c>
+      <c r="AB7">
+        <v>180.838070960369</v>
+      </c>
+      <c r="AC7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AD7">
         <v>0.4166666669999999</v>
       </c>
-      <c r="C7">
+      <c r="AE7">
+        <v>5053.066089749999</v>
+      </c>
+      <c r="AF7">
+        <v>1215.696723851107</v>
+      </c>
+      <c r="AG7">
+        <v>1215.660914670549</v>
+      </c>
+      <c r="AH7">
+        <v>1215.324428200516</v>
+      </c>
+      <c r="AI7">
+        <v>0.9742326325227032</v>
+      </c>
+      <c r="AJ7">
+        <v>1541.09589041096</v>
+      </c>
+      <c r="AK7">
         <v>0.3364864700325733</v>
       </c>
-      <c r="D7">
-        <v>4.629346641245625</v>
-      </c>
-      <c r="E7">
-        <v>1541.09589041096</v>
-      </c>
-      <c r="F7">
+      <c r="AL7">
+        <v>197.9041178362266</v>
+      </c>
+      <c r="AM7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AN7">
+        <v>1510.273972602741</v>
+      </c>
+      <c r="AO7">
         <v>0.05833333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.4716271560000001</v>
-      </c>
-      <c r="H7">
-        <v>180.838070960369</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="AP7">
+        <v>4.822451530987381</v>
+      </c>
+      <c r="AQ7">
         <v>3.945642161716947</v>
       </c>
-      <c r="K7">
-        <v>0.002705621826473629</v>
-      </c>
-      <c r="L7">
-        <v>1.3506914877225</v>
-      </c>
-      <c r="M7">
-        <v>1413.600841687333</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0.000281583</v>
-      </c>
-      <c r="P7">
+      <c r="AR7">
         <v>1510.273972602741</v>
-      </c>
-      <c r="Q7">
-        <v>1215.696723851107</v>
-      </c>
-      <c r="R7">
-        <v>0.001118203799433003</v>
-      </c>
-      <c r="S7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="T7">
-        <v>5053.066089749999</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>8.768093692704328</v>
-      </c>
-      <c r="W7">
-        <v>0.02500566459526617</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.3338634048749999</v>
-      </c>
-      <c r="Z7">
-        <v>1510.273972602741</v>
-      </c>
-      <c r="AA7">
-        <v>9.742326325227031</v>
-      </c>
-      <c r="AB7">
-        <v>4.822451530987381</v>
-      </c>
-      <c r="AC7">
-        <v>197.9041178362266</v>
-      </c>
-      <c r="AD7">
-        <v>5.179028633381112</v>
-      </c>
-      <c r="AE7">
-        <v>4.601635354823885</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>30.82191780821917</v>
-      </c>
-      <c r="AH7">
-        <v>14.59450718711785</v>
-      </c>
-      <c r="AI7">
-        <v>0.001118203799433003</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>1215.324428200516</v>
-      </c>
-      <c r="AL7">
-        <v>3.09314856312</v>
-      </c>
-      <c r="AM7">
-        <v>15.59991995335385</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0.9742326325227032</v>
-      </c>
-      <c r="AP7">
-        <v>1215.660914670549</v>
-      </c>
-      <c r="AQ7">
-        <v>0.1999222053610009</v>
-      </c>
-      <c r="AR7">
-        <v>1205.701559516292</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -2567,133 +2567,133 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.177989000512772</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>46.15250229522244</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.1665958663793544</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.06574463999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.03670593194421815</v>
+      </c>
+      <c r="AF9">
+        <v>0.2069639540846185</v>
+      </c>
+      <c r="AG9">
+        <v>0.2069700505293683</v>
+      </c>
+      <c r="AH9">
+        <v>0.196675986545469</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1665958663793535</v>
+      </c>
+      <c r="AK9">
         <v>37.38714975844132</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>0.1665958663793535</v>
       </c>
-      <c r="F9">
+      <c r="AO9">
         <v>0.3659002285714285</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.177989000512772</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
         <v>0.1665958663793535</v>
-      </c>
-      <c r="Q9">
-        <v>0.2069639540846185</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.06574463999999999</v>
-      </c>
-      <c r="T9">
-        <v>0.03670593194421815</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0.1665958663793535</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>46.15250229522244</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0.1665958663793544</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0.196675986545469</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0.2069700505293683</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -2701,133 +2701,133 @@
         <v>83</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2255184141086641</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>53.84749770477755</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0.2110829066666675</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1.281559174398323</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.26297856</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.2340790339899743</v>
+      </c>
+      <c r="AG10">
+        <v>0.2340859291515212</v>
+      </c>
+      <c r="AH10">
+        <v>0.2294677256359359</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0.2110829066666665</v>
+      </c>
+      <c r="AK10">
         <v>16.91414901266592</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="AL10">
+        <v>0.1729317491234726</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.2110829066666665</v>
       </c>
-      <c r="F10">
+      <c r="AO10">
         <v>0.06457062857142859</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0.2255184141086641</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <v>0.2110829066666665</v>
-      </c>
-      <c r="Q10">
-        <v>0.2340790339899743</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.26297856</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0.2110829066666665</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0.1729317491234726</v>
-      </c>
-      <c r="AD10">
-        <v>53.84749770477755</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0.2110829066666675</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0.2294677256359359</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>1.281559174398323</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0.2340859291515212</v>
-      </c>
-      <c r="AQ10">
-        <v>100</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -2835,133 +2835,133 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1211176432914642</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0.1133648633333336</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>2.140161012834057</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.15953652</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.007589476234595889</v>
+      </c>
+      <c r="AF11">
+        <v>0.1133717474995682</v>
+      </c>
+      <c r="AG11">
+        <v>0.113375087040494</v>
+      </c>
+      <c r="AH11">
+        <v>0.1111383476198546</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1133648633333332</v>
+      </c>
+      <c r="AK11">
         <v>8.192047781247043</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="AL11">
+        <v>0.1686995745845394</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>0.1133648633333332</v>
       </c>
-      <c r="F11">
+      <c r="AO11">
         <v>0.04455919285714285</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>0.1211176432914642</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
         <v>0.1133648633333332</v>
-      </c>
-      <c r="Q11">
-        <v>0.1133717474995682</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.15953652</v>
-      </c>
-      <c r="T11">
-        <v>0.007589476234595889</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>100</v>
-      </c>
-      <c r="Z11">
-        <v>0.1133648633333332</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.1686995745845394</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0.1133648633333336</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0.1111383476198546</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>2.140161012834057</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.113375087040494</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -2969,133 +2969,133 @@
         <v>85</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.2566425466802628</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>99.99999999999999</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0.2402147733333344</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>3.02326651297082</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0.23392512</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.01947451275169619</v>
+      </c>
+      <c r="AF12">
+        <v>0.2596267623393355</v>
+      </c>
+      <c r="AG12">
+        <v>0.2596344100489049</v>
+      </c>
+      <c r="AH12">
+        <v>0.2545121690427885</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2402147733333332</v>
+      </c>
+      <c r="AK12">
         <v>18.76018399012874</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="AL12">
+        <v>0.2383109362031011</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>0.2402147733333332</v>
       </c>
-      <c r="F12">
+      <c r="AO12">
         <v>0.1188905142857143</v>
       </c>
-      <c r="G12">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0.2566425466802628</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>0.2402147733333332</v>
-      </c>
-      <c r="Q12">
-        <v>0.2596267623393355</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.23392512</v>
-      </c>
-      <c r="T12">
-        <v>0.01947451275169619</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0.2402147733333332</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0.2383109362031011</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0.2402147733333344</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0.2545121690427885</v>
-      </c>
-      <c r="AL12">
-        <v>100</v>
-      </c>
-      <c r="AM12">
-        <v>3.02326651297082</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0.2596344100489049</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -3103,133 +3103,133 @@
         <v>86</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.06499359457817963</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.05376703670019928</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1.762649445450732</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0608333333333335</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1.649046923120227</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0.05441324197242944</v>
+      </c>
+      <c r="AG13">
+        <v>0.05441484479899318</v>
+      </c>
+      <c r="AH13">
+        <v>0.05334131240658664</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.06083333333333329</v>
+      </c>
+      <c r="AK13">
         <v>3.93180742117781</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="AL13">
+        <v>0.1299871891563593</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0.06083333333333329</v>
       </c>
-      <c r="F13">
+      <c r="AO13">
         <v>0.01428571428571429</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.06499359457817963</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
         <v>0.06083333333333329</v>
-      </c>
-      <c r="Q13">
-        <v>0.05441324197242944</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.06083333333333329</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.1299871891563593</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0.0608333333333335</v>
-      </c>
-      <c r="AH13">
-        <v>1.762649445450732</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0.05334131240658664</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>1.649046923120227</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.05441484479899318</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0.05376703670019928</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -3237,133 +3237,133 @@
         <v>87</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.3148578581787368</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2025888839617385</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>13.41851863552652</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0.2947037037037037</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>12.55369689410255</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.2050237216047588</v>
+      </c>
+      <c r="AG14">
+        <v>0.2050297608969471</v>
+      </c>
+      <c r="AH14">
+        <v>0.2009847968702499</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2947037037037034</v>
+      </c>
+      <c r="AK14">
         <v>14.81466203633917</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="AL14">
+        <v>0.9895532685617443</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>0.2947037037037034</v>
       </c>
-      <c r="F14">
+      <c r="AO14">
         <v>0.02</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.3148578581787368</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>0.2947037037037034</v>
-      </c>
-      <c r="Q14">
-        <v>0.2050237216047588</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0.2947037037037034</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.9895532685617443</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0.2947037037037037</v>
-      </c>
-      <c r="AH14">
-        <v>13.41851863552652</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0.2009847968702499</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>12.55369689410255</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0.2050297608969471</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0.2025888839617385</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -3371,133 +3371,133 @@
         <v>88</v>
       </c>
       <c r="B15">
+        <v>97.34807543391207</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>98.30050138852638</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>68.96063263388818</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>91.11679328808576</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>64.51612903225809</v>
+      </c>
+      <c r="AB15">
         <v>100</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="AC15">
+        <v>85</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>99.93623007906949</v>
+      </c>
+      <c r="AF15">
+        <v>97.49229844917777</v>
+      </c>
+      <c r="AG15">
+        <v>97.49517023626578</v>
+      </c>
+      <c r="AH15">
+        <v>97.52216369160726</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>91.11679328808577</v>
       </c>
-      <c r="F15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>96.46213405442278</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>91.11679328808577</v>
+      </c>
+      <c r="AO15">
         <v>94.99999999999999</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>97.34807543391207</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
         <v>91.11679328808577</v>
-      </c>
-      <c r="Q15">
-        <v>97.49229844917777</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>85</v>
-      </c>
-      <c r="T15">
-        <v>99.93623007906949</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>91.11679328808577</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>96.46213405442278</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>91.11679328808576</v>
-      </c>
-      <c r="AH15">
-        <v>68.96063263388818</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>97.52216369160726</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>64.51612903225809</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>97.49517023626578</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>98.30050138852638</v>
       </c>
     </row>
     <row r="16" spans="1:44">
@@ -3505,7 +3505,7 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.5147473038254432</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3514,124 +3514,124 @@
         <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2987826382680486</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>15.85819928513457</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>6.882830865164513</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>14.83614045031593</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>13.41781515999999</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0.2992716882706065</v>
+      </c>
+      <c r="AG16">
+        <v>0.2963348484505701</v>
+      </c>
+      <c r="AH16">
+        <v>0.2964168945814542</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>6.882830865164498</v>
       </c>
-      <c r="F16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1.838383227948011</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>6.882830865164498</v>
+      </c>
+      <c r="AO16">
         <v>4.371793721428576</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0.5147473038254432</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <v>6.882830865164498</v>
-      </c>
-      <c r="Q16">
-        <v>0.2992716882706065</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>6.882830865164498</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>1.838383227948011</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>6.882830865164513</v>
-      </c>
-      <c r="AH16">
-        <v>15.85819928513457</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0.2964168945814542</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>14.83614045031593</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0.2963348484505701</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0.2987826382680486</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3776,28 +3776,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>100</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>100</v>
@@ -3848,55 +3848,55 @@
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>100</v>
       </c>
-      <c r="AB18">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>100</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
+      <c r="AQ18">
         <v>100</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>100</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>96</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9760582049124029</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4452,124 +4452,124 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.144360052543629</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0.9135803999999986</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1.134951401060933</v>
+      </c>
+      <c r="AG23">
+        <v>1.1349848328174</v>
+      </c>
+      <c r="AH23">
+        <v>1.135299075690392</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>0.9135803999999992</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.9760582049124029</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>100</v>
       </c>
-      <c r="P23">
+      <c r="AN23">
         <v>0.9135803999999993</v>
       </c>
-      <c r="Q23">
-        <v>1.134951401060933</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>0.9135803999999993</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0.9135803999999986</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>1.135299075690392</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>1.1349848328174</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1.144360052543629</v>
       </c>
     </row>
     <row r="24" spans="1:44">

--- a/exposan/bwaise/results/sysB.xlsx
+++ b/exposan/bwaise/results/sysB.xlsx
@@ -1215,7 +1215,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K3">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K4">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K5">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09034802769442168</v>
+        <v>-0.09034802769442163</v>
       </c>
       <c r="R5">
         <v>-2.025087157306664</v>
@@ -1383,7 +1383,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K6">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K7">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08194832443938474</v>
+        <v>-0.08194832443938471</v>
       </c>
       <c r="R7">
         <v>-2.193081222407403</v>
@@ -1495,7 +1495,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K8">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.0780460232756045</v>
+        <v>-0.07804602327560449</v>
       </c>
       <c r="R8">
         <v>-2.271127245683008</v>
@@ -1551,7 +1551,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K9">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07432954597676619</v>
+        <v>-0.07432954597676618</v>
       </c>
       <c r="R9">
         <v>-2.345456791659774</v>
@@ -1607,7 +1607,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K10">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07079004378739638</v>
+        <v>-0.07079004378739635</v>
       </c>
       <c r="R10">
-        <v>-2.416246835447171</v>
+        <v>-2.41624683544717</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1663,7 +1663,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K11">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.06741908932132988</v>
+        <v>-0.06741908932132987</v>
       </c>
       <c r="R11">
-        <v>-2.483665924768501</v>
+        <v>-2.4836659247685</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1719,7 +1719,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K12">
-        <v>0.1779342229102136</v>
+        <v>0.1779342229102137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06420865649650465</v>
+        <v>-0.06420865649650462</v>
       </c>
       <c r="R12">
         <v>-2.547874581265005</v>

--- a/exposan/bwaise/results/sysB.xlsx
+++ b/exposan/bwaise/results/sysB.xlsx
@@ -1215,7 +1215,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K3">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K4">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K5">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09034802769442163</v>
+        <v>-0.09034802769442168</v>
       </c>
       <c r="R5">
         <v>-2.025087157306664</v>
@@ -1383,7 +1383,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K6">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K7">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08194832443938471</v>
+        <v>-0.08194832443938474</v>
       </c>
       <c r="R7">
         <v>-2.193081222407403</v>
@@ -1495,7 +1495,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K8">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07804602327560449</v>
+        <v>-0.0780460232756045</v>
       </c>
       <c r="R8">
         <v>-2.271127245683008</v>
@@ -1551,7 +1551,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K9">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07432954597676618</v>
+        <v>-0.07432954597676619</v>
       </c>
       <c r="R9">
         <v>-2.345456791659774</v>
@@ -1607,7 +1607,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K10">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07079004378739635</v>
+        <v>-0.07079004378739638</v>
       </c>
       <c r="R10">
-        <v>-2.41624683544717</v>
+        <v>-2.416246835447171</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1663,7 +1663,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K11">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.06741908932132987</v>
+        <v>-0.06741908932132988</v>
       </c>
       <c r="R11">
-        <v>-2.4836659247685</v>
+        <v>-2.483665924768501</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1719,7 +1719,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K12">
-        <v>0.1779342229102137</v>
+        <v>0.1779342229102136</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06420865649650462</v>
+        <v>-0.06420865649650465</v>
       </c>
       <c r="R12">
         <v>-2.547874581265005</v>
